--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\MasterThesis\GHG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733E7C2E-C946-417D-BECF-FECB2281AE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B480983A-4BAB-4AAC-B539-0250E811102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT_PHASES" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
   <si>
     <t>project_phase</t>
   </si>
@@ -211,6 +211,24 @@
   </si>
   <si>
     <t>material</t>
+  </si>
+  <si>
+    <t>TRAIN</t>
+  </si>
+  <si>
+    <t>SHIP</t>
+  </si>
+  <si>
+    <t>fast_train</t>
+  </si>
+  <si>
+    <t>sea_transp</t>
+  </si>
+  <si>
+    <t>gas_stream_1</t>
+  </si>
+  <si>
+    <t>GAS</t>
   </si>
 </sst>
 </file>
@@ -808,8 +826,8 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -955,28 +973,68 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
@@ -2097,7 +2155,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2329,8 +2387,8 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2434,15 +2492,33 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\MasterThesis\GHG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B480983A-4BAB-4AAC-B539-0250E811102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64EF5B6-797F-4088-B5E8-A6E7CBDFCA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT_PHASES" sheetId="1" r:id="rId1"/>
@@ -557,8 +557,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -579,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>15</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2387,7 +2387,7 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
